--- a/tmp_file/import.xlsx
+++ b/tmp_file/import.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="添加新犯" sheetId="2" r:id="rId1"/>
     <sheet name="上下账" sheetId="1" r:id="rId2"/>
     <sheet name="转监区" sheetId="3" r:id="rId3"/>
+    <sheet name="转级" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>所属大队</t>
   </si>
@@ -96,6 +97,9 @@
     <t>NNYY0TX0TXW0TX9TXWTX208</t>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
     <t>六大队</t>
   </si>
   <si>
@@ -105,10 +109,22 @@
     <t>0000001443</t>
   </si>
   <si>
-    <t>一大队</t>
-  </si>
-  <si>
     <t>八大队</t>
+  </si>
+  <si>
+    <t>原等级（非必填）</t>
+  </si>
+  <si>
+    <t>转入等级</t>
+  </si>
+  <si>
+    <t>宽管</t>
+  </si>
+  <si>
+    <t>伟东锋</t>
+  </si>
+  <si>
+    <t>NNYY0TX0TXW0TX9TXWW0TXW</t>
   </si>
 </sst>
 </file>
@@ -116,14 +132,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -146,11 +170,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,55 +199,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,6 +215,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -229,62 +291,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,43 +323,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,7 +431,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,127 +485,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,6 +514,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -508,17 +541,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,8 +585,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,37 +600,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,10 +622,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -610,133 +634,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -747,13 +771,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1236,8 +1260,8 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1248,7 +1272,7 @@
     <col min="4" max="4" width="12.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17.4" spans="1:4">
+    <row r="1" s="2" customFormat="1" ht="17.4" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1269,22 +1293,25 @@
       <c r="B2" t="s">
         <v>25</v>
       </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1292,4 +1319,68 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="2" width="21.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="28.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="14.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="20.4" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/tmp_file/import.xlsx
+++ b/tmp_file/import.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="添加新犯" sheetId="2" r:id="rId1"/>
     <sheet name="上下账" sheetId="1" r:id="rId2"/>
     <sheet name="转监区" sheetId="3" r:id="rId3"/>
     <sheet name="转级" sheetId="4" r:id="rId4"/>
+    <sheet name="出狱" sheetId="5" r:id="rId5"/>
+    <sheet name="销售" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>所属大队</t>
   </si>
@@ -55,7 +57,7 @@
     <t>四大队</t>
   </si>
   <si>
-    <t>测试1</t>
+    <t>罪犯t5</t>
   </si>
   <si>
     <t>男</t>
@@ -70,6 +72,15 @@
     <t>普管</t>
   </si>
   <si>
+    <t>六大队</t>
+  </si>
+  <si>
+    <t>罪犯t6</t>
+  </si>
+  <si>
+    <t>宽管</t>
+  </si>
+  <si>
     <t>编号</t>
   </si>
   <si>
@@ -79,36 +90,15 @@
     <t>处理金额</t>
   </si>
   <si>
-    <t>YY0TX02W0TXK00099Y</t>
-  </si>
-  <si>
-    <t>兰为腾</t>
-  </si>
-  <si>
     <t>原大队（非必填）</t>
   </si>
   <si>
     <t>转入大队</t>
   </si>
   <si>
-    <t>邬兴贵</t>
-  </si>
-  <si>
-    <t>NNYY0TX0TXW0TX9TXWTX208</t>
-  </si>
-  <si>
     <t>无</t>
   </si>
   <si>
-    <t>六大队</t>
-  </si>
-  <si>
-    <t>服刑伦4</t>
-  </si>
-  <si>
-    <t>0000001443</t>
-  </si>
-  <si>
     <t>八大队</t>
   </si>
   <si>
@@ -118,13 +108,7 @@
     <t>转入等级</t>
   </si>
   <si>
-    <t>宽管</t>
-  </si>
-  <si>
-    <t>伟东锋</t>
-  </si>
-  <si>
-    <t>NNYY0TX0TXW0TX9TXWW0TXW</t>
+    <t>严管</t>
   </si>
 </sst>
 </file>
@@ -132,14 +116,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -156,29 +148,28 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,8 +183,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,7 +193,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,7 +238,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,60 +246,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,8 +259,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,15 +269,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,31 +307,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,31 +457,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,115 +475,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,7 +504,51 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -556,17 +584,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -581,39 +598,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -622,10 +606,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,133 +618,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -771,10 +755,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1128,13 +1112,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="12.8888888888889" customWidth="1"/>
     <col min="2" max="3" width="18.8888888888889" customWidth="1"/>
@@ -1143,7 +1127,7 @@
     <col min="10" max="11" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="17.4" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="17.4" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1140,7 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -1165,16 +1149,16 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1186,7 +1170,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>12334445</v>
+        <v>234343</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1201,7 +1185,33 @@
         <v>16</v>
       </c>
       <c r="H2">
-        <v>45454525</v>
+        <v>34345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>3454545</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <v>34555</v>
       </c>
     </row>
   </sheetData>
@@ -1214,38 +1224,49 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="26.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="12.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="17.4" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
+    <row r="1" s="1" customFormat="1" ht="17.4" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
+      <c r="A2" s="2">
+        <v>234343</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>3454545</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1261,7 +1282,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D3"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1272,46 +1293,46 @@
     <col min="4" max="4" width="12.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="17.4" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="17.4" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>234343</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>3454545</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1326,8 +1347,8 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1337,46 +1358,141 @@
     <col min="4" max="4" width="14.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.4" spans="1:4">
+    <row r="1" s="3" customFormat="1" ht="20.4" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
+        <v>234343</v>
+      </c>
+      <c r="B2">
+        <v>234343</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>3454545</v>
+      </c>
+      <c r="B3">
+        <v>3454545</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="2" width="7.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="12.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.4" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>234343</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>34</v>
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>3454545</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="17.4" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>234343</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>3454545</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
